--- a/blog/23_1_23_24_minerva/chord_vectors.xlsx
+++ b/blog/23_1_23_24_minerva/chord_vectors.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10117"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10124"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/homophony.github.io/blog/22_1_22_24_chord_similarity/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/R_Packages/chordspaceR/vignettes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A845CBE-86DC-B64B-AC25-2AA5808C04F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0504E946-03D5-3745-A979-F9FD71BE48BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="26160" windowHeight="28300" xr2:uid="{8745B402-A4AF-EE43-9072-997B8CB9258E}"/>
   </bookViews>
@@ -671,7 +671,7 @@
   <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N64" sqref="N64"/>
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2912,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>0</v>
